--- a/src/databases/example.xlsx
+++ b/src/databases/example.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\github\unfinished\SdustDataBaseExperiment\src\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4DD382-0761-4215-B092-BED524A89265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D190FAF-AD14-498C-9F35-0E1831C22EF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9204" yWindow="1428" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
+    <sheet name="test" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>attribute</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,13 +199,67 @@
   <si>
     <t>sno#int,sname#varchar,age#int,school#varchar,home#varchar</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sno</t>
+  </si>
+  <si>
+    <t>sname</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>school3</t>
+  </si>
+  <si>
+    <t>shandong1</t>
+  </si>
+  <si>
+    <t>张三1</t>
+  </si>
+  <si>
+    <t>school1</t>
+  </si>
+  <si>
+    <t>shandong6</t>
+  </si>
+  <si>
+    <t>张三2</t>
+  </si>
+  <si>
+    <t>school99</t>
+  </si>
+  <si>
+    <t>shandong3</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>张三3</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>shandong2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +274,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -228,7 +290,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -236,11 +298,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -250,6 +327,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -742,7 +822,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -825,4 +905,122 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303F2CD9-B322-4809-8D74-667D9F06C206}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2011</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>